--- a/Data handler/full_model/Node.xlsx
+++ b/Data handler/full_model/Node.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="67">
   <si>
     <t>Source: EC decarbonization scenario 2016 (power generation sheet: final energy demand + refinaries and other uses). Norway (NVE - strømbruk mot 2040) and Switzerland are based on national statistics (and linear interpolation). Bosnia, Serbia and Macedonia use the same trajectory as Croatia (based on EC ref 2013)</t>
   </si>
@@ -89,22 +89,22 @@
     <t>Macedonia</t>
   </si>
   <si>
+    <t>NO1</t>
+  </si>
+  <si>
+    <t>NO2</t>
+  </si>
+  <si>
+    <t>NO3</t>
+  </si>
+  <si>
+    <t>NO4</t>
+  </si>
+  <si>
+    <t>NO5</t>
+  </si>
+  <si>
     <t>Netherlands</t>
-  </si>
-  <si>
-    <t>NO1</t>
-  </si>
-  <si>
-    <t>NO2</t>
-  </si>
-  <si>
-    <t>NO3</t>
-  </si>
-  <si>
-    <t>NO4</t>
-  </si>
-  <si>
-    <t>NO5</t>
   </si>
   <si>
     <t>Poland</t>
@@ -550,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:C283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -656,13 +656,13 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>88486494.50010039</v>
+        <v>89979143.43732385</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -670,10 +670,10 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>90357451.24773075</v>
+        <v>88486494.50010039</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -681,10 +681,10 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>92675431.3386184</v>
+        <v>90357451.24773075</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -692,10 +692,10 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>96681130.17217742</v>
+        <v>92675431.3386184</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -703,10 +703,10 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>101087574.7303169</v>
+        <v>96681130.17217742</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -714,10 +714,10 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>106295510.7376172</v>
+        <v>101087574.7303169</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -725,32 +725,32 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>111200043.1810403</v>
+        <v>106295510.7376172</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>12523190.93484419</v>
+        <v>111200043.1810403</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>12786998.30028329</v>
+        <v>115952873.8425247</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -758,10 +758,10 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>13266957.50708215</v>
+        <v>12523190.93484419</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -769,10 +769,10 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>13690751.27478754</v>
+        <v>12786998.30028329</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -780,10 +780,10 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>14102631.16147309</v>
+        <v>13266957.50708215</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -791,10 +791,10 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>14490683.28611898</v>
+        <v>13690751.27478754</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -802,43 +802,43 @@
         <v>5</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>15008086.11898017</v>
+        <v>14102631.16147309</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
         <v>6</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
       <c r="C25">
-        <v>30677400.99356647</v>
+        <v>14490683.28611898</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>31235164.06533519</v>
+        <v>15008086.11898017</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>31852147.09048953</v>
+        <v>15590164.30594901</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -846,10 +846,10 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>32346928.40327505</v>
+        <v>30677400.99356647</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -857,10 +857,10 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>33009154.88632887</v>
+        <v>31235164.06533519</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -868,10 +868,10 @@
         <v>6</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>34006271.7099193</v>
+        <v>31852147.09048953</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -879,54 +879,54 @@
         <v>6</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>35033521.75301887</v>
+        <v>32346928.40327505</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>16592587.45751023</v>
+        <v>33009154.88632887</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C33">
-        <v>16837881.69529547</v>
+        <v>34006271.7099193</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
         <v>7</v>
       </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
       <c r="C34">
-        <v>17207413.70829889</v>
+        <v>35033521.75301887</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C35">
-        <v>17880997.1019794</v>
+        <v>36075838.40587302</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -934,10 +934,10 @@
         <v>7</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>18744948.2409888</v>
+        <v>16592587.45751023</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -945,10 +945,10 @@
         <v>7</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>19989634.87065597</v>
+        <v>16837881.69529547</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -956,65 +956,65 @@
         <v>7</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>21082047.39859615</v>
+        <v>17207413.70829889</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>65326734.57669571</v>
+        <v>17880997.1019794</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>66679739.04454773</v>
+        <v>18744948.2409888</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>67912797.2477386</v>
+        <v>19989634.87065597</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>70033634.99159795</v>
+        <v>21082047.39859615</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
         <v>8</v>
       </c>
-      <c r="B43">
-        <v>5</v>
-      </c>
       <c r="C43">
-        <v>72607401.58147088</v>
+        <v>22098322.87567283</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1022,10 +1022,10 @@
         <v>8</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>76087025.86337095</v>
+        <v>65326734.57669571</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1033,76 +1033,76 @@
         <v>8</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>79574180.55787686</v>
+        <v>66679739.04454773</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>35853477.93727882</v>
+        <v>67912797.2477386</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>36749513.30007104</v>
+        <v>70033634.99159795</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>37665490.55578341</v>
+        <v>72607401.58147088</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>38980538.95712992</v>
+        <v>76087025.86337095</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50">
-        <v>40596656.99244099</v>
+        <v>79574180.55787686</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>42814914.29568122</v>
+        <v>83065100.45868567</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1110,2166 +1110,2551 @@
         <v>9</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>45302011.42081416</v>
+        <v>35853477.93727882</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>8197951.365097074</v>
+        <v>36749513.30007104</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>8381971.156065002</v>
+        <v>37665490.55578341</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>8565953.593036171</v>
+        <v>38980538.95712992</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C56">
-        <v>8541296.100338578</v>
+        <v>40596656.99244099</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57">
-        <v>8672451.814017544</v>
+        <v>42814914.29568122</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58">
-        <v>9115233.940449622</v>
+        <v>45302011.42081416</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59">
-        <v>9503604.69157098</v>
+        <v>47923528.45689345</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>84315844.02043934</v>
+        <v>8197951.365097074</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61">
-        <v>85205636.66775955</v>
+        <v>8381971.156065002</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
       <c r="C62">
-        <v>85529100.3528346</v>
+        <v>8565953.593036171</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63">
         <v>4</v>
       </c>
       <c r="C63">
-        <v>87016125.43267606</v>
+        <v>8541296.100338578</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64">
         <v>5</v>
       </c>
       <c r="C64">
-        <v>89499321.99790201</v>
+        <v>8672451.814017544</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>93974861.53389692</v>
+        <v>9115233.940449622</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66">
         <v>7</v>
       </c>
       <c r="C66">
-        <v>98234442.17585412</v>
+        <v>9503604.69157098</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C67">
-        <v>474942448.9574542</v>
+        <v>9864769.755036978</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>481012566.345773</v>
+        <v>84315844.02043934</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>488720364.8271361</v>
+        <v>85205636.66775955</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>507956508.4930686</v>
+        <v>85529100.3528346</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>529543644.2789041</v>
+        <v>87016125.43267606</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72">
-        <v>555832764.3045453</v>
+        <v>89499321.99790201</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73">
-        <v>573785851.3731682</v>
+        <v>93974861.53389692</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C74">
-        <v>571389900.0065764</v>
+        <v>98234442.17585412</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C75">
-        <v>574407421.0382546</v>
+        <v>102386043.3707924</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>569121607.8382292</v>
+        <v>474942448.9574542</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C77">
-        <v>573857764.2285483</v>
+        <v>481012566.345773</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C78">
-        <v>583352664.248104</v>
+        <v>488720364.8271361</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C79">
-        <v>602365051.5261325</v>
+        <v>507956508.4930686</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80">
-        <v>621048370.1302643</v>
+        <v>529543644.2789041</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C81">
-        <v>347271811.0110113</v>
+        <v>555832764.3045453</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C82">
-        <v>355084706.2674031</v>
+        <v>573785851.3731682</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C83">
-        <v>365414903.3367297</v>
+        <v>587570921.9632821</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>376379246.948148</v>
+        <v>571389900.0065764</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>393344147.592482</v>
+        <v>574407421.0382546</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C86">
-        <v>422310162.3026479</v>
+        <v>569121607.8382292</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C87">
-        <v>447525377.2793067</v>
+        <v>573857764.2285483</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>53474643.91692065</v>
+        <v>583352664.248104</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C89">
-        <v>52579199.57466536</v>
+        <v>602365051.5261325</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C90">
-        <v>51819609.59976447</v>
+        <v>621048370.1302643</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C91">
-        <v>53562943.33518894</v>
+        <v>639567154.3974477</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>55290282.95102704</v>
+        <v>347271811.0110113</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>56985634.32769239</v>
+        <v>355084706.2674031</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B94">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>58810061.86559074</v>
+        <v>365414903.3367297</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>39895118.08973221</v>
+        <v>376379246.948148</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C96">
-        <v>40687643.35564502</v>
+        <v>393344147.592482</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C97">
-        <v>41075484.6680941</v>
+        <v>422310162.3026479</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C98">
-        <v>42823653.61898906</v>
+        <v>447525377.2793067</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B99">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C99">
-        <v>45013380.73648318</v>
+        <v>470865192.389212</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B100">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>48086224.18717562</v>
+        <v>53474643.91692065</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B101">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C101">
-        <v>50311677.4527173</v>
+        <v>52579199.57466536</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C102">
-        <v>26985437.86850746</v>
+        <v>51819609.59976447</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C103">
-        <v>27536591.15600799</v>
+        <v>53562943.33518894</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C104">
-        <v>28145265.6126625</v>
+        <v>55290282.95102704</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C105">
-        <v>29349468.82176007</v>
+        <v>56985634.32769239</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B106">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C106">
-        <v>30751962.7106262</v>
+        <v>58810061.86559074</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B107">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107">
-        <v>32551037.95902946</v>
+        <v>60699027.48410558</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B108">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <v>34185148.71040324</v>
+        <v>39895118.08973221</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <v>311898094.2753423</v>
+        <v>40687643.35564502</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110">
-        <v>314606963.6395564</v>
+        <v>41075484.6680941</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C111">
-        <v>318721573.6580507</v>
+        <v>42823653.61898906</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C112">
-        <v>330706382.7016177</v>
+        <v>45013380.73648318</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113">
-        <v>345368680.5175567</v>
+        <v>48086224.18717562</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B114">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <v>365385955.8782397</v>
+        <v>50311677.4527173</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B115">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115">
-        <v>380660625.995162</v>
+        <v>52113435.62568359</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
       <c r="C116">
-        <v>7852566.522062198</v>
+        <v>26985437.86850746</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B117">
         <v>2</v>
       </c>
       <c r="C117">
-        <v>8223577.54894852</v>
+        <v>27536591.15600799</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B118">
         <v>3</v>
       </c>
       <c r="C118">
-        <v>8592392.844900424</v>
+        <v>28145265.6126625</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B119">
         <v>4</v>
       </c>
       <c r="C119">
-        <v>8851910.65861249</v>
+        <v>29349468.82176007</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B120">
         <v>5</v>
       </c>
       <c r="C120">
-        <v>9224965.319396166</v>
+        <v>30751962.7106262</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B121">
         <v>6</v>
       </c>
       <c r="C121">
-        <v>9825093.674323061</v>
+        <v>32551037.95902946</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B122">
         <v>7</v>
       </c>
       <c r="C122">
-        <v>10275219.84645214</v>
+        <v>34185148.71040324</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C123">
-        <v>11106948.11624583</v>
+        <v>35736777.21326227</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124">
-        <v>11060639.26161271</v>
+        <v>311898094.2753423</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125">
-        <v>10953274.11523562</v>
+        <v>314606963.6395564</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C126">
-        <v>11100079.79589772</v>
+        <v>318721573.6580507</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B127">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C127">
-        <v>11330495.448161</v>
+        <v>330706382.7016177</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B128">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C128">
-        <v>11728131.04362664</v>
+        <v>345368680.5175567</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B129">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129">
-        <v>12323928.91834811</v>
+        <v>365385955.8782397</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C130">
-        <v>7481221.697625631</v>
+        <v>380660625.995162</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C131">
-        <v>7895786.707255987</v>
+        <v>393563993.490204</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C132">
-        <v>8324375.271309833</v>
+        <v>7852566.522062198</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C133">
-        <v>8923536.56105103</v>
+        <v>8223577.54894852</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C134">
-        <v>9592259.295943459</v>
+        <v>8592392.844900424</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B135">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C135">
-        <v>10400104.92113835</v>
+        <v>8851910.65861249</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B136">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136">
-        <v>10989260.4651796</v>
+        <v>9224965.319396166</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C137">
-        <v>9245441.643059488</v>
+        <v>9825093.674323061</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C138">
-        <v>9440201.558073653</v>
+        <v>10275219.84645214</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C139">
-        <v>9794538.95184136</v>
+        <v>10650344.92718232</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>10107411.33144476</v>
+        <v>11106948.11624583</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B141">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C141">
-        <v>10411488.101983</v>
+        <v>11060639.26161271</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B142">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C142">
-        <v>10697973.65439093</v>
+        <v>10953274.11523562</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B143">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C143">
-        <v>11079954.39093484</v>
+        <v>11100079.79589772</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C144">
-        <v>117273776.330597</v>
+        <v>11330495.448161</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C145">
-        <v>118036206.2473501</v>
+        <v>11728131.04362664</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C146">
-        <v>118525238.725683</v>
+        <v>12323928.91834811</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B147">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C147">
-        <v>119978069.9179198</v>
+        <v>13018807.93269749</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B148">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C148">
-        <v>122266189.782967</v>
+        <v>7481221.697625631</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B149">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C149">
-        <v>126224886.9936353</v>
+        <v>7895786.707255987</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B150">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C150">
-        <v>130477299.2290364</v>
+        <v>8324375.271309833</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C151">
-        <v>39906000</v>
+        <v>8923536.56105103</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C152">
-        <v>40824000</v>
+        <v>9592259.295943459</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C153">
-        <v>41310000</v>
+        <v>10400104.92113835</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C154">
-        <v>41796000</v>
+        <v>10989260.4651796</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B155">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C155">
-        <v>42282000</v>
+        <v>11469070.96864402</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B156">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C156">
-        <v>42768000</v>
+        <v>9245441.643059488</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B157">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C157">
-        <v>43146000</v>
+        <v>9440201.558073653</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C158">
-        <v>39906000</v>
+        <v>9794538.95184136</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C159">
-        <v>40824000</v>
+        <v>10107411.33144476</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C160">
-        <v>41310000</v>
+        <v>10411488.101983</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B161">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C161">
-        <v>41796000</v>
+        <v>10697973.65439093</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B162">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C162">
-        <v>42282000</v>
+        <v>11079954.39093484</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B163">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C163">
-        <v>42768000</v>
+        <v>11509682.71954674</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B164">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C164">
-        <v>43146000</v>
+        <v>39906000</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C165">
-        <v>29560000</v>
+        <v>40824000</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C166">
-        <v>30240000</v>
+        <v>41310000</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C167">
-        <v>30600000</v>
+        <v>41796000</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B168">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C168">
-        <v>30960000</v>
+        <v>42282000</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B169">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C169">
-        <v>31320000</v>
+        <v>42768000</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B170">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C170">
-        <v>31680000</v>
+        <v>43146000</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B171">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171">
-        <v>31960000</v>
+        <v>43470000</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
       <c r="C172">
-        <v>20692000</v>
+        <v>39906000</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B173">
         <v>2</v>
       </c>
       <c r="C173">
-        <v>21168000</v>
+        <v>40824000</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B174">
         <v>3</v>
       </c>
       <c r="C174">
-        <v>21420000</v>
+        <v>41310000</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B175">
         <v>4</v>
       </c>
       <c r="C175">
-        <v>21672000</v>
+        <v>41796000</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B176">
         <v>5</v>
       </c>
       <c r="C176">
-        <v>21924000</v>
+        <v>42282000</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B177">
         <v>6</v>
       </c>
       <c r="C177">
-        <v>22176000</v>
+        <v>42768000</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B178">
         <v>7</v>
       </c>
       <c r="C178">
-        <v>22372000</v>
+        <v>43146000</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C179">
-        <v>17736000</v>
+        <v>43470000</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C180">
-        <v>18144000</v>
+        <v>29560000</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C181">
-        <v>18360000</v>
+        <v>30240000</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C182">
-        <v>18576000</v>
+        <v>30600000</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B183">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C183">
-        <v>18792000</v>
+        <v>30960000</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B184">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184">
-        <v>19008000</v>
+        <v>31320000</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B185">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185">
-        <v>19176000</v>
+        <v>31680000</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C186">
-        <v>161724581.2262024</v>
+        <v>31960000</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B187">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C187">
-        <v>169165241.9473574</v>
+        <v>32200000</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C188">
-        <v>176687917.2872217</v>
+        <v>20692000</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B189">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C189">
-        <v>180418718.8838263</v>
+        <v>21168000</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B190">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C190">
-        <v>187360244.9541611</v>
+        <v>21420000</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B191">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C191">
-        <v>200723219.9719562</v>
+        <v>21672000</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B192">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C192">
-        <v>211039201.3747564</v>
+        <v>21924000</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C193">
-        <v>48181574.12920163</v>
+        <v>22176000</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C194">
-        <v>48341158.6872133</v>
+        <v>22372000</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C195">
-        <v>48415369.05967098</v>
+        <v>22540000</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C196">
-        <v>49364127.28154431</v>
+        <v>17736000</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B197">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C197">
-        <v>50774944.19883285</v>
+        <v>18144000</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B198">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C198">
-        <v>53109878.50695185</v>
+        <v>18360000</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B199">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C199">
-        <v>55712927.35003617</v>
+        <v>18576000</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C200">
-        <v>53478680.44587093</v>
+        <v>18792000</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C201">
-        <v>54720590.04829169</v>
+        <v>19008000</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C202">
-        <v>55946733.47236017</v>
+        <v>19176000</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B203">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C203">
-        <v>57616477.64470923</v>
+        <v>19320000</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C204">
-        <v>60013073.72914715</v>
+        <v>117273776.330597</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B205">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C205">
-        <v>63863373.63776278</v>
+        <v>118036206.2473501</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B206">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C206">
-        <v>67715239.60912524</v>
+        <v>118525238.725683</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C207">
-        <v>41108916.71388102</v>
+        <v>119978069.9179198</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C208">
-        <v>41974896.88385269</v>
+        <v>122266189.782967</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B209">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C209">
-        <v>43550422.09631728</v>
+        <v>126224886.9936353</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B210">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C210">
-        <v>44941577.33711049</v>
+        <v>130477299.2290364</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B211">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C211">
-        <v>46293623.796034</v>
+        <v>134876568.976804</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B212">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C212">
-        <v>47567452.69121812</v>
+        <v>161724581.2262024</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B213">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C213">
-        <v>49265891.21813031</v>
+        <v>169165241.9473574</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C214">
-        <v>30235529.24593522</v>
+        <v>176687917.2872217</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C215">
-        <v>31291864.48815574</v>
+        <v>180418718.8838263</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B216">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C216">
-        <v>32271644.04396634</v>
+        <v>187360244.9541611</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B217">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C217">
-        <v>33698948.80640429</v>
+        <v>200723219.9719562</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B218">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C218">
-        <v>35078151.32386938</v>
+        <v>211039201.3747564</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B219">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C219">
-        <v>36361149.35138875</v>
+        <v>219831685.9700591</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B220">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C220">
-        <v>37373420.868413</v>
+        <v>48181574.12920163</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C221">
-        <v>14472960.119469</v>
+        <v>48341158.6872133</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C222">
-        <v>14885072.67995405</v>
+        <v>48415369.05967098</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C223">
-        <v>15158293.8968723</v>
+        <v>49364127.28154431</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B224">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C224">
-        <v>15485063.062145</v>
+        <v>50774944.19883285</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B225">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225">
-        <v>16126728.09059714</v>
+        <v>53109878.50695185</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B226">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C226">
-        <v>17398184.84540817</v>
+        <v>55712927.35003617</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B227">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227">
-        <v>18373194.55399116</v>
+        <v>58450033.46060316</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
       <c r="C228">
-        <v>254252454.7377071</v>
+        <v>53478680.44587093</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B229">
         <v>2</v>
       </c>
       <c r="C229">
-        <v>257496272.5541631</v>
+        <v>54720590.04829169</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B230">
         <v>3</v>
       </c>
       <c r="C230">
-        <v>261245146.5135735</v>
+        <v>55946733.47236017</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B231">
         <v>4</v>
       </c>
       <c r="C231">
-        <v>267009875.0637827</v>
+        <v>57616477.64470923</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B232">
         <v>5</v>
       </c>
       <c r="C232">
-        <v>275094992.4929672</v>
+        <v>60013073.72914715</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B233">
         <v>6</v>
       </c>
       <c r="C233">
-        <v>287820887.6801024</v>
+        <v>63863373.63776278</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B234">
         <v>7</v>
       </c>
       <c r="C234">
-        <v>298059745.2751125</v>
+        <v>67715239.60912524</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C235">
-        <v>141992558.0977181</v>
+        <v>71567888.61186109</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C236">
-        <v>144829163.3662305</v>
+        <v>41108916.71388102</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C237">
-        <v>147531163.9789818</v>
+        <v>41974896.88385269</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C238">
-        <v>151546614.6763296</v>
+        <v>43550422.09631728</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B239">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C239">
-        <v>156171569.351808</v>
+        <v>44941577.33711049</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B240">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240">
-        <v>162015531.9835474</v>
+        <v>46293623.796034</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B241">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C241">
-        <v>168633701.6429244</v>
+        <v>47567452.69121812</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C242">
-        <v>65783269.55910974</v>
+        <v>49265891.21813031</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C243">
-        <v>66094026.07881299</v>
+        <v>51176634.56090651</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C244">
-        <v>66404782.59851623</v>
+        <v>30235529.24593522</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B245">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C245">
-        <v>66715539.11821949</v>
+        <v>31291864.48815574</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B246">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C246">
-        <v>67026295.63792275</v>
+        <v>32271644.04396634</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B247">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C247">
-        <v>67337052.157626</v>
+        <v>33698948.80640429</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
+        <v>33</v>
+      </c>
+      <c r="B248">
+        <v>5</v>
+      </c>
+      <c r="C248">
+        <v>35078151.32386938</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>33</v>
+      </c>
+      <c r="B249">
+        <v>6</v>
+      </c>
+      <c r="C249">
+        <v>36361149.35138875</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>33</v>
+      </c>
+      <c r="B250">
+        <v>7</v>
+      </c>
+      <c r="C250">
+        <v>37373420.868413</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>33</v>
+      </c>
+      <c r="B251">
+        <v>8</v>
+      </c>
+      <c r="C251">
+        <v>38250329.13018971</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>34</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>14472960.119469</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>34</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="C253">
+        <v>14885072.67995405</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>34</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>15158293.8968723</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>34</v>
+      </c>
+      <c r="B255">
+        <v>4</v>
+      </c>
+      <c r="C255">
+        <v>15485063.062145</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>34</v>
+      </c>
+      <c r="B256">
+        <v>5</v>
+      </c>
+      <c r="C256">
+        <v>16126728.09059714</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>34</v>
+      </c>
+      <c r="B257">
+        <v>6</v>
+      </c>
+      <c r="C257">
+        <v>17398184.84540817</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>34</v>
+      </c>
+      <c r="B258">
+        <v>7</v>
+      </c>
+      <c r="C258">
+        <v>18373194.55399116</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>34</v>
+      </c>
+      <c r="B259">
+        <v>8</v>
+      </c>
+      <c r="C259">
+        <v>19199980.73946013</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>35</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>254252454.7377071</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>35</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="C261">
+        <v>257496272.5541631</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>35</v>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262">
+        <v>261245146.5135735</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>35</v>
+      </c>
+      <c r="B263">
+        <v>4</v>
+      </c>
+      <c r="C263">
+        <v>267009875.0637827</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>35</v>
+      </c>
+      <c r="B264">
+        <v>5</v>
+      </c>
+      <c r="C264">
+        <v>275094992.4929672</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>35</v>
+      </c>
+      <c r="B265">
+        <v>6</v>
+      </c>
+      <c r="C265">
+        <v>287820887.6801024</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>35</v>
+      </c>
+      <c r="B266">
+        <v>7</v>
+      </c>
+      <c r="C266">
+        <v>298059745.2751125</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>35</v>
+      </c>
+      <c r="B267">
+        <v>8</v>
+      </c>
+      <c r="C267">
+        <v>307055084.07406</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>36</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>141992558.0977181</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>36</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="C269">
+        <v>144829163.3662305</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>36</v>
+      </c>
+      <c r="B270">
+        <v>3</v>
+      </c>
+      <c r="C270">
+        <v>147531163.9789818</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>36</v>
+      </c>
+      <c r="B271">
+        <v>4</v>
+      </c>
+      <c r="C271">
+        <v>151546614.6763296</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>36</v>
+      </c>
+      <c r="B272">
+        <v>5</v>
+      </c>
+      <c r="C272">
+        <v>156171569.351808</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>36</v>
+      </c>
+      <c r="B273">
+        <v>6</v>
+      </c>
+      <c r="C273">
+        <v>162015531.9835474</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>36</v>
+      </c>
+      <c r="B274">
+        <v>7</v>
+      </c>
+      <c r="C274">
+        <v>168633701.6429244</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>36</v>
+      </c>
+      <c r="B275">
+        <v>8</v>
+      </c>
+      <c r="C275">
+        <v>175638974.8161202</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
         <v>37</v>
       </c>
-      <c r="B248">
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>65783269.55910974</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>37</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>66094026.07881299</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>37</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>66404782.59851623</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>37</v>
+      </c>
+      <c r="B279">
+        <v>4</v>
+      </c>
+      <c r="C279">
+        <v>66715539.11821949</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>37</v>
+      </c>
+      <c r="B280">
+        <v>5</v>
+      </c>
+      <c r="C280">
+        <v>67026295.63792275</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>37</v>
+      </c>
+      <c r="B281">
+        <v>6</v>
+      </c>
+      <c r="C281">
+        <v>67337052.157626</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>37</v>
+      </c>
+      <c r="B282">
         <v>7</v>
       </c>
-      <c r="C248">
+      <c r="C282">
         <v>67647808.67732924</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>37</v>
+      </c>
+      <c r="B283">
+        <v>8</v>
+      </c>
+      <c r="C283">
+        <v>67958565.1970325</v>
       </c>
     </row>
   </sheetData>
@@ -3550,7 +3935,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3561,7 +3946,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3572,7 +3957,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3583,7 +3968,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3594,7 +3979,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3605,7 +3990,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3900,7 +4285,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>203300</v>
@@ -3908,7 +4293,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>19613100</v>
@@ -3916,7 +4301,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>49787100</v>
@@ -3924,7 +4309,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>22630500</v>
@@ -3932,7 +4317,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30">
         <v>27156600</v>
@@ -3940,7 +4325,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>31682700</v>
@@ -4331,7 +4716,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>52.14</v>
@@ -4339,7 +4724,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>60.11</v>
@@ -4347,7 +4732,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>59.04</v>
@@ -4355,7 +4740,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>63.09</v>
@@ -4363,7 +4748,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30">
         <v>68.27</v>
@@ -4371,7 +4756,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>60.68</v>
@@ -4762,7 +5147,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>5.54</v>
@@ -4770,7 +5155,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>10.71</v>
@@ -4778,7 +5163,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>7.32</v>
@@ -4786,7 +5171,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>10.53</v>
@@ -4794,7 +5179,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30">
         <v>16.85</v>
@@ -4802,7 +5187,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>6.28</v>
@@ -4990,8 +5375,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="4cd9b23512e5ed5f06fd653b087fad24">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0fd60b66c697f161fb7f5dd5e750562" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="13" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="d479b00409af6e981aacf0e296b2ead4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61f3bd59c311ef453d9cb08d9ad24a36" ns2:_="" ns3:_="">
     <xsd:import namespace="1603ae16-0075-49fc-8eb8-355ddc15d60c"/>
     <xsd:import namespace="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1"/>
     <xsd:element name="properties">
@@ -5011,7 +5396,6 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5064,11 +5448,6 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5222,9 +5601,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA7B4B9B-6353-4805-BF5B-945D92567633}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E29EAC-C991-4F07-B065-3E18DA3384F6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3404B871-473F-4101-9362-CBD659BC2623}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{801869E2-1DC0-4FEB-B203-57379678EC08}"/>
 </file>
--- a/Data handler/full_model/Node.xlsx
+++ b/Data handler/full_model/Node.xlsx
@@ -5375,8 +5375,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="13" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="d479b00409af6e981aacf0e296b2ead4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61f3bd59c311ef453d9cb08d9ad24a36" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="4cd9b23512e5ed5f06fd653b087fad24">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0fd60b66c697f161fb7f5dd5e750562" ns2:_="" ns3:_="">
     <xsd:import namespace="1603ae16-0075-49fc-8eb8-355ddc15d60c"/>
     <xsd:import namespace="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1"/>
     <xsd:element name="properties">
@@ -5396,6 +5396,7 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5448,6 +5449,11 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5601,7 +5607,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E29EAC-C991-4F07-B065-3E18DA3384F6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FBC1EBB-4DB1-4E9E-96CC-954D02653D9E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
